--- a/data/monthly_investment_analysis.xlsx
+++ b/data/monthly_investment_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,369 +436,338 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Currency</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Max Rate Month</t>
+          <t>Best Investment Currency</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Max Rate Value</t>
+          <t>Percent Change</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Max Rate Change (%)</t>
+          <t>End Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Final Value (Max Rate)</t>
+          <t>Profit</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Max Rate Profit</t>
+          <t>Average Monthly Profit</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Max Rate Return (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Min Rate Month</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min Rate Value</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Min Rate Change (%)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Final Value (Min Rate)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Min Rate Profit</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Min Rate Return (%)</t>
+          <t>Profit Std Dev (Risk)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>7.2023</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10355</v>
+      </c>
+      <c r="E2" t="n">
+        <v>355</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22.7143</v>
+      </c>
+      <c r="G2" t="n">
+        <v>172.6825</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>8.202299999999999</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10341.5385</v>
+      </c>
+      <c r="E3" t="n">
+        <v>341.5385</v>
+      </c>
+      <c r="F3" t="n">
+        <v>67.22190000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>181.1365</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>9.202299999999999</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10619.7259</v>
+      </c>
+      <c r="E4" t="n">
+        <v>619.7259</v>
+      </c>
+      <c r="F4" t="n">
+        <v>443.3619</v>
+      </c>
+      <c r="G4" t="n">
+        <v>159.996</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>10.2023</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UAH</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10568.9363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>568.9363</v>
+      </c>
+      <c r="F5" t="n">
+        <v>275.4086</v>
+      </c>
+      <c r="G5" t="n">
+        <v>216.4199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>11.2023</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10171.5443</v>
+      </c>
+      <c r="E6" t="n">
+        <v>171.5443</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-74.13809999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>152.0948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>12.2023</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10094.9475</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.94750000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-184.5552</v>
+      </c>
+      <c r="G7" t="n">
+        <v>150.458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1.2024</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10258.4856</v>
+      </c>
+      <c r="E8" t="n">
+        <v>258.4856</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-104.7283</v>
+      </c>
+      <c r="G8" t="n">
+        <v>243.6442</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2.2024</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10065.6261</v>
+      </c>
+      <c r="E9" t="n">
+        <v>65.62609999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-190.0829</v>
+      </c>
+      <c r="G9" t="n">
+        <v>196.6109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3.2024</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9890.011399999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-109.9886</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-332.167</v>
+      </c>
+      <c r="G10" t="n">
+        <v>208.8207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>4.2024</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9837.094999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-162.905</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-355.792</v>
+      </c>
+      <c r="G11" t="n">
+        <v>204.086</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>5.2024</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9760.2515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-239.7485</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-427.3649</v>
+      </c>
+      <c r="G12" t="n">
+        <v>260.3534</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>6.2024</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CHF</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>9.202299999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.7908</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10296</v>
-      </c>
-      <c r="F2" t="n">
-        <v>296</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.2024</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.3533</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9874</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1.26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9.202299999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.5977</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10309</v>
-      </c>
-      <c r="F3" t="n">
-        <v>309</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.2024</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9947</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-53</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>GPB</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9.202299999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.3353</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10271</v>
-      </c>
-      <c r="F4" t="n">
-        <v>270.9999999999982</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.709999999999982</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.2024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.0006</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9953</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-47</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9.202299999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.3033</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10527</v>
-      </c>
-      <c r="F5" t="n">
-        <v>527</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.2024</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.9585</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9869</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-131</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9.202299999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.7645</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10427</v>
-      </c>
-      <c r="F6" t="n">
-        <v>427</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2024</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.5975</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9923</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>UAH</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.2023</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10026</v>
-      </c>
-      <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.2024</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0992</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9970</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-30</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.202299999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4013</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10269</v>
-      </c>
-      <c r="F8" t="n">
-        <v>269</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.2024</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3683</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9855</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-145</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-1.45</v>
+      <c r="C13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10006.2099</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.2099</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-268.8599</v>
+      </c>
+      <c r="G13" t="n">
+        <v>345.9103</v>
       </c>
     </row>
   </sheetData>
